--- a/BackTest/2020-01-24 BackTest FNB.xlsx
+++ b/BackTest/2020-01-24 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4999957.376500001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-5296243.103200002</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4375216.267000002</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4368729.909800001</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4378205.400000001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3966601.063200001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3965601.063200001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3969322.498500001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3968322.498500001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-15177768.6214</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-23775187.37492162</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-22609909.92622162</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-22609909.92622162</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-22610593.92622162</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-22610353.92622162</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-21721271.83842162</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-21872571.83842162</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-21872571.83842162</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-21934175.78762162</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-22226081.46612162</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-22225841.46612162</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-23766212.39302162</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-23766212.39302162</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-23102459.14862162</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-26620262.23792162</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-27325208.16402162</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-27187911.32552162</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-26625932.83682162</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-26804823.68922162</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-27378868.54702162</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-27434196.08622162</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-28642370.33452163</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-28642670.33452163</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-28573064.86552162</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-29761806.47852162</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-29762006.47852162</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-30730277.33762162</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-31303344.79702162</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-31728809.78652162</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-31428809.78652162</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-31713832.42342162</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -12034,11 +12034,17 @@
         <v>-45077799.50012162</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>2.077</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12077,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12110,17 @@
         <v>-45654904.67662162</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>2.062</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12153,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12190,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12227,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12260,17 @@
         <v>-46268764.64412162</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>2.061</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12299,17 @@
         <v>-46243514.64412162</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>2.063</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12338,17 @@
         <v>-45075095.23502161</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>2.067</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12377,17 @@
         <v>-45075095.23502161</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>2.068</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12416,17 @@
         <v>-47309703.12352161</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>2.068</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12455,17 @@
         <v>-47309703.12352161</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>2.055</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12494,17 @@
         <v>-47308575.99822161</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>2.055</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12533,17 @@
         <v>-47272219.34762161</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>2.06</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12572,17 @@
         <v>-47272219.34762161</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>2.061</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12611,17 @@
         <v>-47401856.78642161</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>2.061</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12650,17 @@
         <v>-47398987.85782161</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>2.056</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,7 +12689,7 @@
         <v>-47395355.63332161</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>2.057</v>
@@ -12603,7 +12697,7 @@
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L370" t="n">
@@ -12634,7 +12728,7 @@
         <v>-47452763.32652161</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>2.061</v>
@@ -12673,7 +12767,7 @@
         <v>-47087695.93062161</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>2.057</v>
@@ -12712,7 +12806,7 @@
         <v>-47087695.93062161</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>2.061</v>
@@ -12751,7 +12845,7 @@
         <v>-47091142.11862161</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>2.061</v>
@@ -12790,7 +12884,7 @@
         <v>-47091142.11862161</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>2.056</v>
@@ -12829,7 +12923,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>2.056</v>
@@ -12868,7 +12962,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>2.061</v>
@@ -12907,7 +13001,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>2.061</v>
@@ -12946,7 +13040,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>2.061</v>
@@ -12985,7 +13079,7 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>2.061</v>
@@ -13024,7 +13118,7 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>2.077</v>
@@ -13063,11 +13157,9 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>2.077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -13102,11 +13194,9 @@
         <v>-47069399.03052161</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>2.077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13141,7 +13231,7 @@
         <v>-47069399.03052161</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>2.058</v>
@@ -13180,7 +13270,7 @@
         <v>-44538302.70065446</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>2.058</v>
@@ -13219,11 +13309,9 @@
         <v>-40327938.63116458</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>2.155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13406,11 +13494,9 @@
         <v>-41648786.15016458</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>2.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13445,11 +13531,9 @@
         <v>-41543373.97076458</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>2.108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13595,11 +13679,9 @@
         <v>-41840224.82386458</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>2.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -17201,6 +17283,6 @@
       <c r="M493" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest FNB.xlsx
+++ b/BackTest/2020-01-24 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4999957.376500001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4368729.909800001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4378205.400000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3966601.063200001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3965601.063200001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3969322.498500001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3968322.498500001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-15177768.6214</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-22609909.92622162</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-22609909.92622162</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-22610593.92622162</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-22610353.92622162</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-21721271.83842162</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-21872571.83842162</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-21872571.83842162</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-21934175.78762162</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-22226081.46612162</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-22225841.46612162</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-23766212.39302162</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-23766212.39302162</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-29762006.47852162</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -12034,17 +12034,11 @@
         <v>-45077799.50012162</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>2.077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12077,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12110,17 +12100,11 @@
         <v>-45654904.67662162</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12153,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12190,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12227,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12260,17 +12232,11 @@
         <v>-46268764.64412162</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12307,7 +12273,7 @@
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L360" t="n">
@@ -12377,11 +12343,9 @@
         <v>-45075095.23502161</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -12962,11 +12926,9 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13001,11 +12963,9 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13040,11 +13000,9 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13079,11 +13037,9 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13118,11 +13074,9 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>2.077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13231,11 +13185,9 @@
         <v>-47069399.03052161</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>2.058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13270,11 +13222,9 @@
         <v>-44538302.70065446</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>2.058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -14493,18 +14443,16 @@
         <v>-37232364.55142161</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="inlineStr"/>
     </row>
     <row r="419">
@@ -14530,15 +14478,11 @@
         <v>-37321749.77517863</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14567,15 +14511,11 @@
         <v>-37318706.41507863</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14604,15 +14544,11 @@
         <v>-37318706.41507863</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14645,11 +14581,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14682,11 +14614,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14719,11 +14647,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14756,11 +14680,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14793,11 +14713,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14830,11 +14746,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14867,11 +14779,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14904,11 +14812,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14941,11 +14845,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14978,11 +14878,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15015,11 +14911,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15052,11 +14944,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15089,11 +14977,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15126,11 +15010,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15163,11 +15043,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15200,11 +15076,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15237,11 +15109,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15274,11 +15142,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15311,11 +15175,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15348,11 +15208,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15385,11 +15241,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15422,11 +15274,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15459,11 +15307,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15496,11 +15340,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15533,11 +15373,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15570,11 +15406,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15607,11 +15439,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15644,11 +15472,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15681,11 +15505,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15718,11 +15538,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15755,11 +15571,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15792,11 +15604,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +15637,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15866,11 +15670,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15903,11 +15703,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15940,11 +15736,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15977,11 +15769,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16014,11 +15802,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16051,11 +15835,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16088,11 +15868,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16125,11 +15901,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16162,11 +15934,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16199,11 +15967,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16236,11 +16000,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16273,11 +16033,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16310,11 +16066,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16347,11 +16099,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16384,11 +16132,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16421,11 +16165,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16458,11 +16198,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16495,11 +16231,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16532,11 +16264,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16569,11 +16297,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16606,11 +16330,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16643,11 +16363,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16680,11 +16396,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16717,11 +16429,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16754,11 +16462,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16791,11 +16495,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16828,11 +16528,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16865,11 +16561,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16902,11 +16594,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16939,11 +16627,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16976,11 +16660,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17013,11 +16693,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +16726,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17087,11 +16759,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17124,11 +16792,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17161,11 +16825,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17198,11 +16858,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17235,11 +16891,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17272,17 +16924,13 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
       <c r="M493" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest FNB.xlsx
+++ b/BackTest/2020-01-24 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>-4999957.376500001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4999957.376500001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4925401.966500001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4572138.256900001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4688906.121300002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5152825.392300001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-21854586.50152162</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-24143410.04782162</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-24143170.04782162</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-23774943.37492162</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-23775187.37492162</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-23855187.37492162</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-23384470.86422162</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-22608981.92622162</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-22608981.92622162</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-22609221.92622162</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-22609665.92622162</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-22609909.92622162</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-22609909.92622162</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-22610593.92622162</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-22610353.92622162</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-21721271.83842162</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-21872571.83842162</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-29762006.47852162</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-31713832.42342162</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -12265,483 +12265,413 @@
         <v>-46243514.64412162</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="D361" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="E361" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F361" t="n">
+        <v>1168419.4091</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-45075095.23502161</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="E362" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1308742.7991</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-45075095.23502161</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="D363" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="E363" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="F363" t="n">
+        <v>2234607.8885</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-47309703.12352161</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="D364" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1326828.7357</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-47309703.12352161</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D365" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="E365" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F365" t="n">
+        <v>1127.1253</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-47308575.99822161</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="E366" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="F366" t="n">
+        <v>36356.6506</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-47272219.34762161</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="D367" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="E367" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="F367" t="n">
+        <v>1249.515</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-47272219.34762161</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="E368" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="F368" t="n">
+        <v>129637.4388</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-47401856.78642161</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="D369" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="E369" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="F369" t="n">
+        <v>2868.9286</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-47398987.85782161</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="D370" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="F370" t="n">
+        <v>3632.2245</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-47395355.63332161</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="D371" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="F371" t="n">
+        <v>57407.6932</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-47452763.32652161</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="E372" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="F372" t="n">
+        <v>365067.3959</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-47087695.93062161</v>
+      </c>
+      <c r="H372" t="n">
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>2.067</v>
-      </c>
-      <c r="C361" t="n">
-        <v>2.068</v>
-      </c>
-      <c r="D361" t="n">
-        <v>2.068</v>
-      </c>
-      <c r="E361" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="F361" t="n">
-        <v>1168419.4091</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-45075095.23502161</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>2.067</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>2.068</v>
-      </c>
-      <c r="C362" t="n">
-        <v>2.068</v>
-      </c>
-      <c r="D362" t="n">
-        <v>2.068</v>
-      </c>
-      <c r="E362" t="n">
-        <v>2.059</v>
-      </c>
-      <c r="F362" t="n">
-        <v>1308742.7991</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-45075095.23502161</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>2.059</v>
-      </c>
-      <c r="C363" t="n">
-        <v>2.055</v>
-      </c>
-      <c r="D363" t="n">
-        <v>2.068</v>
-      </c>
-      <c r="E363" t="n">
-        <v>2.055</v>
-      </c>
-      <c r="F363" t="n">
-        <v>2234607.8885</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-47309703.12352161</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>2.068</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>2.056</v>
-      </c>
-      <c r="C364" t="n">
-        <v>2.055</v>
-      </c>
-      <c r="D364" t="n">
-        <v>2.056</v>
-      </c>
-      <c r="E364" t="n">
-        <v>2.055</v>
-      </c>
-      <c r="F364" t="n">
-        <v>1326828.7357</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-47309703.12352161</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>2.055</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C365" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="D365" t="n">
-        <v>2.077</v>
-      </c>
-      <c r="E365" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="F365" t="n">
-        <v>1127.1253</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-47308575.99822161</v>
-      </c>
-      <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>2.055</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="C366" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="D366" t="n">
-        <v>2.062</v>
-      </c>
-      <c r="E366" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="F366" t="n">
-        <v>36356.6506</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-47272219.34762161</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>2.062</v>
-      </c>
-      <c r="C367" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="D367" t="n">
-        <v>2.062</v>
-      </c>
-      <c r="E367" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="F367" t="n">
-        <v>1249.515</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-47272219.34762161</v>
-      </c>
-      <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="C368" t="n">
-        <v>2.056</v>
-      </c>
-      <c r="D368" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="E368" t="n">
-        <v>2.056</v>
-      </c>
-      <c r="F368" t="n">
-        <v>129637.4388</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-47401856.78642161</v>
-      </c>
-      <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="C369" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="D369" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="E369" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="F369" t="n">
-        <v>2868.9286</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-47398987.85782161</v>
-      </c>
-      <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>2.056</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="C370" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="D370" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="E370" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="F370" t="n">
-        <v>3632.2245</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-47395355.63332161</v>
-      </c>
-      <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="C371" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="D371" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="E371" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="F371" t="n">
-        <v>57407.6932</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-47452763.32652161</v>
-      </c>
-      <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="C372" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="D372" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="E372" t="n">
-        <v>2.055</v>
-      </c>
-      <c r="F372" t="n">
-        <v>365067.3959</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-47087695.93062161</v>
-      </c>
-      <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>2.057</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12770,11 +12700,9 @@
         <v>-47087695.93062161</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -12809,11 +12737,9 @@
         <v>-47091142.11862161</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -12926,9 +12852,11 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2.061</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -12963,9 +12891,11 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2.061</v>
+      </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13000,9 +12930,11 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2.061</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13037,9 +12969,11 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2.061</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13074,9 +13008,11 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2.077</v>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13148,9 +13084,11 @@
         <v>-47069399.03052161</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2.077</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13185,9 +13123,11 @@
         <v>-47069399.03052161</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2.058</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13222,9 +13162,11 @@
         <v>-44538302.70065446</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2.058</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -14443,16 +14385,18 @@
         <v>-37232364.55142161</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
       <c r="M418" t="inlineStr"/>
     </row>
     <row r="419">
@@ -14478,11 +14422,15 @@
         <v>-37321749.77517863</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14511,11 +14459,15 @@
         <v>-37318706.41507863</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14544,11 +14496,15 @@
         <v>-37318706.41507863</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14581,7 +14537,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14614,7 +14574,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14647,7 +14611,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14680,7 +14648,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14713,7 +14685,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14746,7 +14722,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14779,7 +14759,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14812,7 +14796,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14845,7 +14833,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +14870,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14911,7 +14907,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14944,7 +14944,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14977,7 +14981,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15010,7 +15018,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15043,7 +15055,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15076,7 +15092,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15109,7 +15129,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15142,7 +15166,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15175,7 +15203,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15208,7 +15240,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15241,7 +15277,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15274,7 +15314,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15307,7 +15351,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15340,7 +15388,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15373,7 +15425,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15406,7 +15462,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15439,7 +15499,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15472,7 +15536,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15505,7 +15573,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15538,7 +15610,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15571,7 +15647,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15604,7 +15684,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15637,7 +15721,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15670,7 +15758,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15703,7 +15795,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15736,7 +15832,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15769,7 +15869,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15802,7 +15906,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15835,7 +15943,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15868,7 +15980,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15901,7 +16017,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15934,7 +16054,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15967,7 +16091,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16000,7 +16128,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16033,7 +16165,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16066,7 +16202,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16099,7 +16239,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16132,7 +16276,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16165,7 +16313,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16198,7 +16350,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16231,7 +16387,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16264,7 +16424,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16297,7 +16461,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16330,7 +16498,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16363,7 +16535,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16396,7 +16572,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16429,7 +16609,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16462,7 +16646,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16495,7 +16683,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16528,7 +16720,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16561,7 +16757,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16594,7 +16794,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16627,7 +16831,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16660,7 +16868,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16693,7 +16905,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16726,7 +16942,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16759,7 +16979,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16792,7 +17016,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16825,7 +17053,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16858,7 +17090,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16891,7 +17127,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16924,7 +17164,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
